--- a/9.10.2023/source/3.xlsx
+++ b/9.10.2023/source/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letkh\Documents\GitHub\Informatika23-24\9.10.2023\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10319DE-5CE0-4E7C-80C1-01BB8A1DD259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA41DF-66F4-4623-A14C-E7619BC0122B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="5505" windowWidth="13650" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10425" yWindow="5415" windowWidth="13650" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Движение товаров" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:J2293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I239" sqref="I239"/>
+      <selection activeCell="H1607" sqref="H1607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="I239" s="2">
         <f>SUBTOTAL(9,H239:H1607)</f>
-        <v>1176</v>
+        <v>1286</v>
       </c>
       <c r="J239" s="2"/>
     </row>
@@ -42282,8 +42282,8 @@
         <v>281</v>
       </c>
       <c r="H1593" s="2">
-        <f>E1593*2</f>
-        <v>220</v>
+        <f>E1593*3</f>
+        <v>330</v>
       </c>
       <c r="I1593" s="2"/>
       <c r="J1593" s="2"/>
@@ -60493,8 +60493,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="A11"/>
-        <filter val="A12"/>
-        <filter val="A6"/>
         <filter val="A7"/>
       </filters>
     </filterColumn>
